--- a/updated.xlsx
+++ b/updated.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>2306.00</t>
+          <t>2305.00</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" s="8" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D58" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E58" s="8" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>13165.00</t>
+          <t>14537.00</t>
         </is>
       </c>
       <c r="D62" s="6" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D71" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" s="8" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D87" s="6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E87" s="8" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>8413.00</t>
+          <t>9194.00</t>
         </is>
       </c>
       <c r="D95" s="6" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="D124" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E124" s="8" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="D133" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E133" s="8" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>6438.00</t>
+          <t>6851.00</t>
         </is>
       </c>
       <c r="D150" s="6" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D156" s="6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E156" s="8" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D158" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E158" s="8" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D166" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E166" s="8" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D170" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E170" s="8" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="D179" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E179" s="8" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>4951.00</t>
+          <t>4950.00</t>
         </is>
       </c>
       <c r="D194" s="6" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="D200" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E200" s="8" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="D212" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E212" s="8" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>3793.00</t>
+          <t>3792.00</t>
         </is>
       </c>
       <c r="D222" s="6" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="C229" s="7" t="inlineStr">
         <is>
-          <t>3298.00</t>
+          <t>3297.00</t>
         </is>
       </c>
       <c r="D229" s="6" t="inlineStr">

--- a/updated.xlsx
+++ b/updated.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>5364.00</t>
+          <t>5777.00</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>9083.00</t>
+          <t>8256.00</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D60" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" s="8" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" s="8" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>2479.00</t>
+          <t>2231.00</t>
         </is>
       </c>
       <c r="D86" s="6" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>4581.00</t>
+          <t>4950.00</t>
         </is>
       </c>
       <c r="D110" s="6" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>11066.00</t>
+          <t>8835.00</t>
         </is>
       </c>
       <c r="D117" s="6" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>11562.00</t>
+          <t>12388.00</t>
         </is>
       </c>
       <c r="D121" s="6" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>7859.00</t>
+          <t>7879.00</t>
         </is>
       </c>
       <c r="D173" s="6" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="D179" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E179" s="8" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D181" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E181" s="8" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C183" s="7" t="inlineStr">
         <is>
-          <t>31645.00</t>
+          <t>34702.00</t>
         </is>
       </c>
       <c r="D183" s="6" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="D227" s="6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E227" s="8" t="inlineStr">
